--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.00712032073609</v>
+        <v>4.791298</v>
       </c>
       <c r="H2">
-        <v>4.00712032073609</v>
+        <v>14.373894</v>
       </c>
       <c r="I2">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527056</v>
       </c>
       <c r="J2">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527057</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.24134485217792</v>
+        <v>5.938300333333333</v>
       </c>
       <c r="N2">
-        <v>4.24134485217792</v>
+        <v>17.814901</v>
       </c>
       <c r="O2">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="P2">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="Q2">
-        <v>16.99557914441155</v>
+        <v>28.45216651049934</v>
       </c>
       <c r="R2">
-        <v>16.99557914441155</v>
+        <v>256.069498594494</v>
       </c>
       <c r="S2">
-        <v>0.02702228036271654</v>
+        <v>0.03538797124312517</v>
       </c>
       <c r="T2">
-        <v>0.02702228036271654</v>
+        <v>0.03538797124312518</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.00712032073609</v>
+        <v>4.791298</v>
       </c>
       <c r="H3">
-        <v>4.00712032073609</v>
+        <v>14.373894</v>
       </c>
       <c r="I3">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527056</v>
       </c>
       <c r="J3">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527057</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5393447361086</v>
+        <v>10.82685766666667</v>
       </c>
       <c r="N3">
-        <v>10.5393447361086</v>
+        <v>32.480573</v>
       </c>
       <c r="O3">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="P3">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="Q3">
-        <v>42.23242245930371</v>
+        <v>51.87470148458467</v>
       </c>
       <c r="R3">
-        <v>42.23242245930371</v>
+        <v>466.872313361262</v>
       </c>
       <c r="S3">
-        <v>0.06714783593986817</v>
+        <v>0.0645202341166099</v>
       </c>
       <c r="T3">
-        <v>0.06714783593986817</v>
+        <v>0.06452023411660991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.00712032073609</v>
+        <v>4.791298</v>
       </c>
       <c r="H4">
-        <v>4.00712032073609</v>
+        <v>14.373894</v>
       </c>
       <c r="I4">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527056</v>
       </c>
       <c r="J4">
-        <v>0.2348274880604627</v>
+        <v>0.2539858212527057</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.0772048701436</v>
+        <v>25.85508933333334</v>
       </c>
       <c r="N4">
-        <v>22.0772048701436</v>
+        <v>77.565268</v>
       </c>
       <c r="O4">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657375</v>
       </c>
       <c r="P4">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657376</v>
       </c>
       <c r="Q4">
-        <v>88.46601626020619</v>
+        <v>123.8794378126213</v>
       </c>
       <c r="R4">
-        <v>88.46601626020619</v>
+        <v>1114.914940313592</v>
       </c>
       <c r="S4">
-        <v>0.1406573717578779</v>
+        <v>0.1540776158929706</v>
       </c>
       <c r="T4">
-        <v>0.1406573717578779</v>
+        <v>0.1540776158929706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.723236766928821</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H5">
-        <v>9.723236766928821</v>
+        <v>29.532507</v>
       </c>
       <c r="I5">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="J5">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.24134485217792</v>
+        <v>5.938300333333333</v>
       </c>
       <c r="N5">
-        <v>4.24134485217792</v>
+        <v>17.814901</v>
       </c>
       <c r="O5">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="P5">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="Q5">
-        <v>41.23960020792064</v>
+        <v>58.45763205408967</v>
       </c>
       <c r="R5">
-        <v>41.23960020792064</v>
+        <v>526.1186884868071</v>
       </c>
       <c r="S5">
-        <v>0.06556928889541287</v>
+        <v>0.07270789032209315</v>
       </c>
       <c r="T5">
-        <v>0.06556928889541287</v>
+        <v>0.07270789032209315</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.723236766928821</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H6">
-        <v>9.723236766928821</v>
+        <v>29.532507</v>
       </c>
       <c r="I6">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="J6">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.5393447361086</v>
+        <v>10.82685766666667</v>
       </c>
       <c r="N6">
-        <v>10.5393447361086</v>
+        <v>32.480573</v>
       </c>
       <c r="O6">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="P6">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="Q6">
-        <v>102.4765442374689</v>
+        <v>106.5814166096123</v>
       </c>
       <c r="R6">
-        <v>102.4765442374689</v>
+        <v>959.2327494865111</v>
       </c>
       <c r="S6">
-        <v>0.1629335420380631</v>
+        <v>0.1325628438397014</v>
       </c>
       <c r="T6">
-        <v>0.1629335420380631</v>
+        <v>0.1325628438397014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.723236766928821</v>
+        <v>9.844169000000001</v>
       </c>
       <c r="H7">
-        <v>9.723236766928821</v>
+        <v>29.532507</v>
       </c>
       <c r="I7">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="J7">
-        <v>0.5698065151623899</v>
+        <v>0.5218375788805928</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0772048701436</v>
+        <v>25.85508933333334</v>
       </c>
       <c r="N7">
-        <v>22.0772048701436</v>
+        <v>77.565268</v>
       </c>
       <c r="O7">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657375</v>
       </c>
       <c r="P7">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657376</v>
       </c>
       <c r="Q7">
-        <v>214.6618901044003</v>
+        <v>254.5218689074307</v>
       </c>
       <c r="R7">
-        <v>214.6618901044003</v>
+        <v>2290.696820166876</v>
       </c>
       <c r="S7">
-        <v>0.3413036842289138</v>
+        <v>0.3165668447187982</v>
       </c>
       <c r="T7">
-        <v>0.3413036842289138</v>
+        <v>0.3165668447187983</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.33374538957297</v>
+        <v>4.228964</v>
       </c>
       <c r="H8">
-        <v>3.33374538957297</v>
+        <v>12.686892</v>
       </c>
       <c r="I8">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="J8">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.24134485217792</v>
+        <v>5.938300333333333</v>
       </c>
       <c r="N8">
-        <v>4.24134485217792</v>
+        <v>17.814901</v>
       </c>
       <c r="O8">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="P8">
-        <v>0.1150729013281398</v>
+        <v>0.1393304991144193</v>
       </c>
       <c r="Q8">
-        <v>14.13956384653719</v>
+        <v>25.11285833085467</v>
       </c>
       <c r="R8">
-        <v>14.13956384653719</v>
+        <v>226.015724977692</v>
       </c>
       <c r="S8">
-        <v>0.02248133207001036</v>
+        <v>0.03123463754920099</v>
       </c>
       <c r="T8">
-        <v>0.02248133207001036</v>
+        <v>0.03123463754920099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.33374538957297</v>
+        <v>4.228964</v>
       </c>
       <c r="H9">
-        <v>3.33374538957297</v>
+        <v>12.686892</v>
       </c>
       <c r="I9">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="J9">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.5393447361086</v>
+        <v>10.82685766666667</v>
       </c>
       <c r="N9">
-        <v>10.5393447361086</v>
+        <v>32.480573</v>
       </c>
       <c r="O9">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="P9">
-        <v>0.2859453826912254</v>
+        <v>0.2540308502198431</v>
       </c>
       <c r="Q9">
-        <v>35.1354919231222</v>
+        <v>45.78639130545734</v>
       </c>
       <c r="R9">
-        <v>35.1354919231222</v>
+        <v>412.077521749116</v>
       </c>
       <c r="S9">
-        <v>0.05586400471329414</v>
+        <v>0.05694777226353174</v>
       </c>
       <c r="T9">
-        <v>0.05586400471329414</v>
+        <v>0.05694777226353175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.33374538957297</v>
+        <v>4.228964</v>
       </c>
       <c r="H10">
-        <v>3.33374538957297</v>
+        <v>12.686892</v>
       </c>
       <c r="I10">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="J10">
-        <v>0.1953659967771474</v>
+        <v>0.2241765998667015</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0772048701436</v>
+        <v>25.85508933333334</v>
       </c>
       <c r="N10">
-        <v>22.0772048701436</v>
+        <v>77.565268</v>
       </c>
       <c r="O10">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657375</v>
       </c>
       <c r="P10">
-        <v>0.5989817159806347</v>
+        <v>0.6066386506657376</v>
       </c>
       <c r="Q10">
-        <v>73.59977995049914</v>
+        <v>109.3402420074507</v>
       </c>
       <c r="R10">
-        <v>73.59977995049914</v>
+        <v>984.062178067056</v>
       </c>
       <c r="S10">
-        <v>0.1170206599938429</v>
+        <v>0.1359941900539688</v>
       </c>
       <c r="T10">
-        <v>0.1170206599938429</v>
+        <v>0.1359941900539688</v>
       </c>
     </row>
   </sheetData>
